--- a/Python/Work/update_exel_tables/test/Исходные данные/new_data.xlsx
+++ b/Python/Work/update_exel_tables/test/Исходные данные/new_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="221">
   <si>
-    <t>Состояние счета ПБС (03 и 14 л/счета) на 19.11.2025 
+    <t>Состояние счета ПБС (03 и 14 л/счета) на 24.11.2025 
 Счет: 03104041230 (ГКУ "Дирекция ТДФ")</t>
   </si>
   <si>
@@ -1237,7 +1237,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O5" s="6">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>74</v>
+        <v>74.02</v>
       </c>
       <c r="O6" s="6">
         <v>0</v>
@@ -3053,19 +3053,19 @@
         <v>6054024001.7200003</v>
       </c>
       <c r="L26" s="6">
-        <v>5382368033.21</v>
+        <v>6054024001.7200003</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
       </c>
       <c r="N26" s="6">
-        <v>671655968.50999999</v>
+        <v>0</v>
       </c>
       <c r="O26" s="6">
         <v>1651991900</v>
       </c>
       <c r="P26" s="6">
-        <v>1215974237.0599999</v>
+        <v>1037668195.96</v>
       </c>
       <c r="Q26" s="6">
         <v>263941664.77000001</v>
@@ -3074,22 +3074,22 @@
         <v>5984474800</v>
       </c>
       <c r="S26" s="6">
-        <v>363456479.32999998</v>
+        <v>0</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
       </c>
       <c r="U26" s="6">
+        <v>5530699586.1000004</v>
+      </c>
+      <c r="V26" s="6">
         <v>4958508355.8500004</v>
       </c>
-      <c r="V26" s="6">
-        <v>4871713520.8400002</v>
-      </c>
       <c r="W26" s="6">
-        <v>0</v>
+        <v>533415462.44999999</v>
       </c>
       <c r="X26" s="6">
-        <v>86794835.010000005</v>
+        <v>38775767.799999997</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="6">
-        <v>2023503798.8</v>
+        <v>2579746793.6500001</v>
       </c>
       <c r="V28" s="6">
         <v>2023503798.8</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="6">
-        <v>0</v>
+        <v>556242994.85000002</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -5273,13 +5273,13 @@
         <v>1275369800</v>
       </c>
       <c r="L56" s="6">
-        <v>736460706.60000002</v>
+        <v>1271101606.5899999</v>
       </c>
       <c r="M56" s="6">
         <v>0</v>
       </c>
       <c r="N56" s="6">
-        <v>538909093.39999998</v>
+        <v>4268193.41</v>
       </c>
       <c r="O56" s="6">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="6">
-        <v>0</v>
+        <v>4176774</v>
       </c>
       <c r="V72" s="6">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="6">
-        <v>0</v>
+        <v>4176774</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -8038,16 +8038,16 @@
         <v>0</v>
       </c>
       <c r="U93" s="6">
-        <v>2158268012.9400001</v>
+        <v>2220326366.46</v>
       </c>
       <c r="V93" s="6">
-        <v>2134948317.8900001</v>
+        <v>2206841954.4499998</v>
       </c>
       <c r="W93" s="6">
         <v>0</v>
       </c>
       <c r="X93" s="6">
-        <v>0</v>
+        <v>13484412.01</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -8334,16 +8334,16 @@
         <v>0</v>
       </c>
       <c r="U97" s="6">
+        <v>20171911.859999999</v>
+      </c>
+      <c r="V97" s="6">
         <v>20087886.98</v>
       </c>
-      <c r="V97" s="6">
-        <v>18110407.280000001</v>
-      </c>
       <c r="W97" s="6">
         <v>0</v>
       </c>
       <c r="X97" s="6">
-        <v>0</v>
+        <v>84024.88</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8482,13 +8482,13 @@
         <v>0</v>
       </c>
       <c r="U99" s="6">
+        <v>9037362.6699999999</v>
+      </c>
+      <c r="V99" s="6">
         <v>8990333.6699999999</v>
       </c>
-      <c r="V99" s="6">
-        <v>8687095.9700000007</v>
-      </c>
       <c r="W99" s="6">
-        <v>0</v>
+        <v>47029</v>
       </c>
       <c r="X99" s="6">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>4706634363.3699999</v>
       </c>
       <c r="L100" s="6">
-        <v>3575812887.6100001</v>
+        <v>3476532568.6100001</v>
       </c>
       <c r="M100" s="6">
         <v>0</v>
       </c>
       <c r="N100" s="6">
-        <v>1130821475.76</v>
+        <v>1230101794.76</v>
       </c>
       <c r="O100" s="6">
         <v>3319376187.8299999</v>
       </c>
       <c r="P100" s="6">
-        <v>1961955101.8399999</v>
+        <v>1888408757.9200001</v>
       </c>
       <c r="Q100" s="6">
         <v>18104985.329999998</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="U100" s="6">
-        <v>1426281875.3299999</v>
+        <v>1433157816.4300001</v>
       </c>
       <c r="V100" s="6">
-        <v>1426281875.3299999</v>
+        <v>1433157816.4300001</v>
       </c>
       <c r="W100" s="6">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>0</v>
       </c>
       <c r="U117" s="6">
-        <v>117999628.59</v>
+        <v>123263513.06999999</v>
       </c>
       <c r="V117" s="6">
-        <v>117993969.8</v>
+        <v>123257854.28</v>
       </c>
       <c r="W117" s="6">
         <v>0</v>
@@ -9888,10 +9888,10 @@
         <v>0</v>
       </c>
       <c r="U118" s="6">
-        <v>465022.56</v>
+        <v>484774.74</v>
       </c>
       <c r="V118" s="6">
-        <v>465022.56</v>
+        <v>484774.74</v>
       </c>
       <c r="W118" s="6">
         <v>0</v>
@@ -9935,13 +9935,13 @@
         <v>100000</v>
       </c>
       <c r="L119" s="6">
-        <v>81440</v>
+        <v>82640</v>
       </c>
       <c r="M119" s="6">
         <v>0</v>
       </c>
       <c r="N119" s="6">
-        <v>18560</v>
+        <v>15860</v>
       </c>
       <c r="O119" s="6">
         <v>100000</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="6">
-        <v>81440</v>
+        <v>82640</v>
       </c>
       <c r="V119" s="6">
         <v>81440</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="6">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -10009,13 +10009,13 @@
         <v>510400</v>
       </c>
       <c r="L120" s="6">
-        <v>247611.2</v>
+        <v>254511.2</v>
       </c>
       <c r="M120" s="6">
         <v>0</v>
       </c>
       <c r="N120" s="6">
-        <v>262788.8</v>
+        <v>245288.8</v>
       </c>
       <c r="O120" s="6">
         <v>510400</v>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="6">
-        <v>247611.2</v>
+        <v>254511.2</v>
       </c>
       <c r="V120" s="6">
         <v>247611.2</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="X120" s="6">
-        <v>0</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="6">
-        <v>3258576.3</v>
+        <v>3269376.3</v>
       </c>
       <c r="V126" s="6">
         <v>3258576.3</v>
@@ -10598,7 +10598,7 @@
         <v>34</v>
       </c>
       <c r="K128" s="6">
-        <v>33532.559999999998</v>
+        <v>0</v>
       </c>
       <c r="L128" s="6">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="6">
-        <v>33532.559999999998</v>
+        <v>0</v>
       </c>
       <c r="O128" s="6">
         <v>1534780</v>
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="6">
-        <v>412817</v>
+        <v>410972</v>
       </c>
       <c r="O129" s="6">
         <v>2453758</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="6">
-        <v>82779.520000000004</v>
+        <v>72177.52</v>
       </c>
       <c r="O138" s="6">
         <v>976852</v>
@@ -11412,7 +11412,7 @@
         <v>34</v>
       </c>
       <c r="K139" s="6">
-        <v>1029120</v>
+        <v>1279120</v>
       </c>
       <c r="L139" s="6">
         <v>861325.5</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="N139" s="6">
-        <v>167794.5</v>
+        <v>349491.5</v>
       </c>
       <c r="O139" s="6">
         <v>864000</v>
@@ -11445,7 +11445,7 @@
         <v>861325.5</v>
       </c>
       <c r="V139" s="6">
-        <v>805584.5</v>
+        <v>861325.5</v>
       </c>
       <c r="W139" s="6">
         <v>0</v>
@@ -11501,10 +11501,10 @@
         <v>2755982.72</v>
       </c>
       <c r="P140" s="6">
-        <v>0</v>
+        <v>2755896</v>
       </c>
       <c r="Q140" s="6">
-        <v>2755896</v>
+        <v>0</v>
       </c>
       <c r="R140" s="6">
         <v>2755982.72</v>
@@ -11516,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="U140" s="6">
-        <v>2379160.83</v>
+        <v>2389150.6800000002</v>
       </c>
       <c r="V140" s="6">
-        <v>2379160.83</v>
+        <v>2389150.6800000002</v>
       </c>
       <c r="W140" s="6">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>34</v>
       </c>
       <c r="K141" s="6">
-        <v>1638549.13</v>
+        <v>1329581.69</v>
       </c>
       <c r="L141" s="6">
         <v>1027157</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="6">
-        <v>611392.13</v>
+        <v>293924.69</v>
       </c>
       <c r="O141" s="6">
         <v>1638497.7</v>
@@ -11593,7 +11593,7 @@
         <v>897997</v>
       </c>
       <c r="V141" s="6">
-        <v>894797</v>
+        <v>897997</v>
       </c>
       <c r="W141" s="6">
         <v>0</v>
@@ -11708,7 +11708,7 @@
         <v>34</v>
       </c>
       <c r="K143" s="6">
-        <v>2363360</v>
+        <v>2435880</v>
       </c>
       <c r="L143" s="6">
         <v>2305799.6</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="N143" s="6">
-        <v>57560.4</v>
+        <v>130080.4</v>
       </c>
       <c r="O143" s="6">
         <v>2750000</v>
@@ -11785,13 +11785,13 @@
         <v>2682909.0299999998</v>
       </c>
       <c r="L144" s="6">
-        <v>2652885.04</v>
+        <v>2670529.04</v>
       </c>
       <c r="M144" s="6">
         <v>0</v>
       </c>
       <c r="N144" s="6">
-        <v>30023.99</v>
+        <v>12379.99</v>
       </c>
       <c r="O144" s="6">
         <v>1814614.1</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="N146" s="6">
-        <v>20602.09</v>
+        <v>20452.09</v>
       </c>
       <c r="O146" s="6">
         <v>450000</v>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="N148" s="6">
-        <v>51072.1</v>
+        <v>43499.1</v>
       </c>
       <c r="O148" s="6">
         <v>220000</v>
@@ -12229,13 +12229,13 @@
         <v>576364.06999999995</v>
       </c>
       <c r="L150" s="6">
-        <v>354149.75</v>
+        <v>363649.75</v>
       </c>
       <c r="M150" s="6">
         <v>0</v>
       </c>
       <c r="N150" s="6">
-        <v>222214.32</v>
+        <v>153302.32</v>
       </c>
       <c r="O150" s="6">
         <v>960817</v>
@@ -12259,7 +12259,7 @@
         <v>354149.75</v>
       </c>
       <c r="V150" s="6">
-        <v>352949.75</v>
+        <v>354149.75</v>
       </c>
       <c r="W150" s="6">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>34</v>
       </c>
       <c r="K151" s="6">
-        <v>8896</v>
+        <v>28876</v>
       </c>
       <c r="L151" s="6">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="N151" s="6">
-        <v>8896</v>
+        <v>0</v>
       </c>
       <c r="O151" s="6">
         <v>0</v>
@@ -12555,7 +12555,7 @@
         <v>2077908.39</v>
       </c>
       <c r="V154" s="6">
-        <v>1974591.67</v>
+        <v>2077908.39</v>
       </c>
       <c r="W154" s="6">
         <v>0</v>
@@ -12626,10 +12626,10 @@
         <v>0</v>
       </c>
       <c r="U155" s="6">
-        <v>83315.45</v>
+        <v>88596.1</v>
       </c>
       <c r="V155" s="6">
-        <v>83315.45</v>
+        <v>88596.1</v>
       </c>
       <c r="W155" s="6">
         <v>0</v>
@@ -17317,43 +17317,43 @@
         <v>28558315312.049999</v>
       </c>
       <c r="L219" s="8">
-        <v>27278329038.810001</v>
+        <v>28385380832.310001</v>
       </c>
       <c r="M219" s="8">
         <v>0</v>
       </c>
       <c r="N219" s="8">
-        <v>1279986273.24</v>
+        <v>172737118.78</v>
       </c>
       <c r="O219" s="8">
         <v>18108501500</v>
       </c>
       <c r="P219" s="8">
-        <v>13081418999.15</v>
+        <v>12832322510.129999</v>
       </c>
       <c r="Q219" s="8">
-        <v>640714703.58000004</v>
+        <v>637958807.58000004</v>
       </c>
       <c r="R219" s="8">
         <v>13680423200</v>
       </c>
       <c r="S219" s="8">
-        <v>5687953985.9300003</v>
+        <v>5324497506.6000004</v>
       </c>
       <c r="T219" s="8">
         <v>75276209.5</v>
       </c>
       <c r="U219" s="8">
-        <v>13331937446.559999</v>
+        <v>14538931601.32</v>
       </c>
       <c r="V219" s="8">
-        <v>13219353365.68</v>
+        <v>13392660860.629999</v>
       </c>
       <c r="W219" s="8">
-        <v>0</v>
+        <v>533462491.44999999</v>
       </c>
       <c r="X219" s="8">
-        <v>86794835.010000005</v>
+        <v>612772073.53999996</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17430,7 +17430,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0E658-EAD7-4D40-9457-3D69487BE24A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5C5FD8-4558-4882-A02D-2169F3C8E157}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Python/Work/update_exel_tables/test/Исходные данные/new_data.xlsx
+++ b/Python/Work/update_exel_tables/test/Исходные данные/new_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="221">
   <si>
-    <t>Состояние счета ПБС (03 и 14 л/счета) на 24.11.2025 
+    <t>Состояние счета ПБС (03 и 14 л/счета) на 25.11.2025 
 Счет: 03104041230 (ГКУ "Дирекция ТДФ")</t>
   </si>
   <si>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O5" s="6">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>74.02</v>
+        <v>74</v>
       </c>
       <c r="O6" s="6">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="6">
-        <v>5530699586.1000004</v>
+        <v>5541486264.1400003</v>
       </c>
       <c r="V26" s="6">
-        <v>4958508355.8500004</v>
+        <v>4997284123.6499996</v>
       </c>
       <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
         <v>533415462.44999999</v>
-      </c>
-      <c r="X26" s="6">
-        <v>38775767.799999997</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -3201,19 +3201,19 @@
         <v>4351570425.0299997</v>
       </c>
       <c r="L28" s="6">
-        <v>4351570425.0299997</v>
+        <v>2805178725.0300002</v>
       </c>
       <c r="M28" s="6">
         <v>0</v>
       </c>
       <c r="N28" s="6">
-        <v>0</v>
+        <v>1546391700</v>
       </c>
       <c r="O28" s="6">
         <v>7376354629.9499998</v>
       </c>
       <c r="P28" s="6">
-        <v>5253879540.3100004</v>
+        <v>6800271240.3100004</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="U28" s="6">
+        <v>2673968620.0500002</v>
+      </c>
+      <c r="V28" s="6">
         <v>2579746793.6500001</v>
       </c>
-      <c r="V28" s="6">
-        <v>2023503798.8</v>
-      </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
       <c r="X28" s="6">
-        <v>556242994.85000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -6487,13 +6487,13 @@
         <v>4176774</v>
       </c>
       <c r="V72" s="6">
-        <v>0</v>
+        <v>4176774</v>
       </c>
       <c r="W72" s="6">
         <v>0</v>
       </c>
       <c r="X72" s="6">
-        <v>4176774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -8038,16 +8038,16 @@
         <v>0</v>
       </c>
       <c r="U93" s="6">
+        <v>2229390829.0900002</v>
+      </c>
+      <c r="V93" s="6">
         <v>2220326366.46</v>
       </c>
-      <c r="V93" s="6">
-        <v>2206841954.4499998</v>
-      </c>
       <c r="W93" s="6">
         <v>0</v>
       </c>
       <c r="X93" s="6">
-        <v>13484412.01</v>
+        <v>9064462.6300000008</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -8337,13 +8337,13 @@
         <v>20171911.859999999</v>
       </c>
       <c r="V97" s="6">
-        <v>20087886.98</v>
+        <v>20171911.859999999</v>
       </c>
       <c r="W97" s="6">
         <v>0</v>
       </c>
       <c r="X97" s="6">
-        <v>84024.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8488,10 +8488,10 @@
         <v>8990333.6699999999</v>
       </c>
       <c r="W99" s="6">
+        <v>0</v>
+      </c>
+      <c r="X99" s="6">
         <v>47029</v>
-      </c>
-      <c r="X99" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -9965,13 +9965,13 @@
         <v>82640</v>
       </c>
       <c r="V119" s="6">
-        <v>81440</v>
+        <v>82640</v>
       </c>
       <c r="W119" s="6">
         <v>0</v>
       </c>
       <c r="X119" s="6">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -10039,13 +10039,13 @@
         <v>254511.2</v>
       </c>
       <c r="V120" s="6">
-        <v>247611.2</v>
+        <v>254511.2</v>
       </c>
       <c r="W120" s="6">
         <v>0</v>
       </c>
       <c r="X120" s="6">
-        <v>6900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="X126" s="6">
-        <v>0</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="6">
-        <v>410972</v>
+        <v>45922</v>
       </c>
       <c r="O129" s="6">
         <v>2453758</v>
@@ -17317,19 +17317,19 @@
         <v>28558315312.049999</v>
       </c>
       <c r="L219" s="8">
-        <v>28385380832.310001</v>
+        <v>26838989132.310001</v>
       </c>
       <c r="M219" s="8">
         <v>0</v>
       </c>
       <c r="N219" s="8">
-        <v>172737118.78</v>
+        <v>1718763768.74</v>
       </c>
       <c r="O219" s="8">
         <v>18108501500</v>
       </c>
       <c r="P219" s="8">
-        <v>12832322510.129999</v>
+        <v>14378714210.129999</v>
       </c>
       <c r="Q219" s="8">
         <v>637958807.58000004</v>
@@ -17344,16 +17344,16 @@
         <v>75276209.5</v>
       </c>
       <c r="U219" s="8">
-        <v>14538931601.32</v>
+        <v>14653004568.389999</v>
       </c>
       <c r="V219" s="8">
-        <v>13392660860.629999</v>
+        <v>14005432934.17</v>
       </c>
       <c r="W219" s="8">
-        <v>533462491.44999999</v>
+        <v>0</v>
       </c>
       <c r="X219" s="8">
-        <v>612772073.53999996</v>
+        <v>542537754.08000004</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17424,13 +17424,13 @@
 <MailMerge>
   <Parameters>
     <Parameter Name="ReportMode" Type="System.Int32" Value="6"/>
-    <Parameter Name="ReportBaseParams" Type="System.String" Value="&lt;?xml version=&quot;1.0&quot; encoding=&quot;utf-16&quot;?&gt;&#10;&lt;ShortPrimaryServiceReportArguments xmlns:xsd=&quot;http://www.w3.org/2001/XMLSchema&quot; xmlns:xsi=&quot;http://www.w3.org/2001/XMLSchema-instance&quot;&gt;&#10;  &lt;Code&gt;DOCUMENTS_ACCSTATE&lt;/Code&gt;&#10;  &lt;DocName&gt;Состояние счета ПБС (03 и 14 л_счета)&lt;/DocName&gt;&#10;  &lt;VariantLink xsi:nil=&quot;true&quot; /&gt;&#10;  &lt;SvodReportLink xsi:nil=&quot;true&quot; /&gt;&#10;  &lt;ReportLink xsi:nil=&quot;true&quot; /&gt;&#10;&lt;/ShortPrimaryServiceReportArguments&gt;"/>
+    <Parameter Name="ReportBaseParams" Type="System.String" Value="&lt;?xml version=&quot;1.0&quot; encoding=&quot;utf-16&quot;?&gt;&#10;&lt;ShortPrimaryServiceReportArguments xmlns:xsd=&quot;http://www.w3.org/2001/XMLSchema&quot; xmlns:xsi=&quot;http://www.w3.org/2001/XMLSchema-instance&quot;&gt;&#10;  &lt;Code&gt;DOCUMENTS_ACCSTATE&lt;/Code&gt;&#10;  &lt;DocLink&gt;-1&lt;/DocLink&gt;&#10;  &lt;DocName&gt;Состояние счета ПБС (03 и 14 л_счета)&lt;/DocName&gt;&#10;  &lt;VariantLink xsi:nil=&quot;true&quot; /&gt;&#10;  &lt;SvodReportLink xsi:nil=&quot;true&quot; /&gt;&#10;  &lt;ReportLink xsi:nil=&quot;true&quot; /&gt;&#10;&lt;/ShortPrimaryServiceReportArguments&gt;"/>
   </Parameters>
 </MailMerge>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5C5FD8-4558-4882-A02D-2169F3C8E157}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC10442-7042-4F4D-8417-F3B7F4A6CBD3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>